--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_18-56.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_18-56.xlsx
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>TUSSISTOP 60 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>UNICTAM 1.5 GM I.M/I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
@@ -2958,17 +2964,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2976,7 +2982,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2984,17 +2990,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>0.98999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3010,17 +3016,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>0.5</v>
+        <v>0.98999999999999999</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3028,7 +3034,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3036,17 +3042,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3054,7 +3060,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3062,17 +3068,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3080,7 +3086,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3088,17 +3094,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3114,13 +3120,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3132,7 +3138,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3140,17 +3146,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3166,17 +3172,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3184,7 +3190,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3192,13 +3198,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3218,17 +3224,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3236,7 +3242,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3244,17 +3250,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3270,51 +3276,77 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" ht="25.5" customHeight="1">
+      <c r="A93" s="6">
+        <v>90</v>
+      </c>
+      <c t="s" r="B93" s="7">
+        <v>127</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c t="s" r="H93" s="8">
+        <v>34</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="9">
+        <v>27</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c r="N93" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="93" ht="25.5" customHeight="1">
-      <c r="K93" s="11">
-        <v>5050.1999999999998</v>
-      </c>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
-    </row>
-    <row r="94" ht="17.25" customHeight="1">
-      <c t="s" r="A94" s="12">
-        <v>126</v>
-      </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c t="s" r="F94" s="13">
-        <v>127</v>
-      </c>
-      <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
-      <c t="s" r="I94" s="15">
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="K94" s="11">
+        <v>5106.1999999999998</v>
+      </c>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="12">
         <v>128</v>
       </c>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c t="s" r="F95" s="13">
+        <v>129</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
+      <c t="s" r="I95" s="15">
+        <v>130</v>
+      </c>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="278">
+  <mergeCells count="281">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3589,10 +3621,13 @@
     <mergeCell ref="B92:G92"/>
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="I95:N95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
